--- a/medicine/Pharmacie/Avélumab/Avélumab.xlsx
+++ b/medicine/Pharmacie/Avélumab/Avélumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Av%C3%A9lumab</t>
+          <t>Avélumab</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'avélumab, commercialisé sous le nom de Bavencio, est un anticorps monoclonal humain de type immunoglobuline G1 (IgG1) dirigé contre le ligand de la protéine programmée de mort cellulaire 1 (PD-L1)[1].
+L'avélumab, commercialisé sous le nom de Bavencio, est un anticorps monoclonal humain de type immunoglobuline G1 (IgG1) dirigé contre le ligand de la protéine programmée de mort cellulaire 1 (PD-L1).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Av%C3%A9lumab</t>
+          <t>Avélumab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'avélumab se lie au ligand de la protéine programmée de mort cellulaire 1 et bloque l'interaction entre celle-ci et ses récepteurs. Cela conduit à la suppression des effets inhibiteurs du PD-L1 sur les lymphocytes T CD8+ cytotoxiques, rétablissant ainsi les réponses anti-tumorales des lymphocytes T[2].
-Il a également été montré que l'avélumab induisait une lyse directe des cellules tumorales par les cellules Natural Killer (NK) via la cytotoxicité à médiation cellulaire dépendante des anticorps (CCDA)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avélumab se lie au ligand de la protéine programmée de mort cellulaire 1 et bloque l'interaction entre celle-ci et ses récepteurs. Cela conduit à la suppression des effets inhibiteurs du PD-L1 sur les lymphocytes T CD8+ cytotoxiques, rétablissant ainsi les réponses anti-tumorales des lymphocytes T.
+Il a également été montré que l'avélumab induisait une lyse directe des cellules tumorales par les cellules Natural Killer (NK) via la cytotoxicité à médiation cellulaire dépendante des anticorps (CCDA).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Av%C3%A9lumab</t>
+          <t>Avélumab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'avélumab est utilisé en monothérapie pour le traitement de patients atteints de carcinome à cellules de Merkel (CCM) métastatique de l'adulte[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avélumab est utilisé en monothérapie pour le traitement de patients atteints de carcinome à cellules de Merkel (CCM) métastatique de l'adulte.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Av%C3%A9lumab</t>
+          <t>Avélumab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont essentiellement une fatigue (32,4 %), des nausées (25,1 %), des diarrhées (18,9 %), une diminution de l'appétit (18,4 %), une constipation (18,4 %), des réactions liées à la perfusion (17,1 %), une perte de poids (16,6 %) et des vomissements (16,2 %)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont essentiellement une fatigue (32,4 %), des nausées (25,1 %), des diarrhées (18,9 %), une diminution de l'appétit (18,4 %), une constipation (18,4 %), des réactions liées à la perfusion (17,1 %), une perte de poids (16,6 %) et des vomissements (16,2 %).
 </t>
         </is>
       </c>
